--- a/biology/Médecine/Biothérapie/Biothérapie.xlsx
+++ b/biology/Médecine/Biothérapie/Biothérapie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bioth%C3%A9rapie</t>
+          <t>Biothérapie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les biothérapies recouvrent l'utilisation thérapeutique de substances d'origine biologique, moléculaires (ADN, protéines dont anticorps) ou cellulaires.
-Les termes de biothérapie, immunothérapie, thérapie ciblée et biomédicament sont apparus récemment[Quand ?][1].
+Les termes de biothérapie, immunothérapie, thérapie ciblée et biomédicament sont apparus récemment[Quand ?].
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bioth%C3%A9rapie</t>
+          <t>Biothérapie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Champs d'application</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les biothérapies comprennent :
 les thérapies géniques ou génothérapies (transfert de gènes, intervention sur les gènes),
@@ -535,7 +549,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bioth%C3%A9rapie</t>
+          <t>Biothérapie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -553,9 +567,11 @@
           <t>En Europe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">76 biothérapies sont autorisées en Europe début 2022. Parmi elles, 21 sont fabriquées en Allemagne, 12 en Italie et 5 en France[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">76 biothérapies sont autorisées en Europe début 2022. Parmi elles, 21 sont fabriquées en Allemagne, 12 en Italie et 5 en France.
 </t>
         </is>
       </c>
